--- a/Personal/Tensorflow_Certificate/모델 분류.xlsx
+++ b/Personal/Tensorflow_Certificate/모델 분류.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sangtaek_Lee\Desktop\TIL\Personal\Tensorflow_Certificate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF464AB-8CAA-4508-A915-DBE5BAA0EDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32437304-2F41-45DA-9DE1-91565AE4D551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{47C03463-BEFF-4097-AAB7-86A08A368AE8}"/>
+    <workbookView xWindow="-14910" yWindow="2130" windowWidth="11805" windowHeight="11385" xr2:uid="{47C03463-BEFF-4097-AAB7-86A08A368AE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>시험 Test</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -77,27 +77,87 @@
     <t>categrory5</t>
   </si>
   <si>
-    <t>모델 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모델 2</t>
-  </si>
-  <si>
-    <t>모델 3</t>
-  </si>
-  <si>
-    <t>모델 4</t>
-  </si>
-  <si>
-    <t>모델 5</t>
+    <t>basic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mnist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fashion mnist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iris</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rps</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>horses-or-humans (Type A)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>horses-or-humans (Type B)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cats vs dogs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sarcasm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunspots (Type A)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunspots (Type B, No Lambda)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEPC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weekly US Retail Price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델02</t>
+  </si>
+  <si>
+    <t>모델03</t>
+  </si>
+  <si>
+    <t>모델04</t>
+  </si>
+  <si>
+    <t>모델05</t>
+  </si>
+  <si>
+    <t>관계없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,8 +201,14 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -324,6 +390,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -333,33 +522,126 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -367,91 +649,43 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -769,331 +1003,685 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E9AAD6-F362-4826-8F76-82BA7749E6D3}">
-  <dimension ref="C5:AF12"/>
+  <dimension ref="C5:AF20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="3:32" ht="17.25" thickBot="1"/>
-    <row r="6" spans="3:32">
-      <c r="C6" s="21" t="s">
+    <row r="5" spans="3:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="21" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="24" t="s">
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="21" t="s">
+      <c r="P6" s="40"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="31"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="V6" s="31"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="32"/>
+    </row>
+    <row r="7" spans="3:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
+        <v>2</v>
+      </c>
+      <c r="E7" s="11">
+        <v>3</v>
+      </c>
+      <c r="F7" s="11">
+        <v>4</v>
+      </c>
+      <c r="G7" s="12">
+        <v>5</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="S6" s="22"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="21" t="s">
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="7"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="9"/>
+    </row>
+    <row r="9" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="45"/>
+      <c r="J9" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="V6" s="22"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="21" t="s">
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P9" s="20">
+        <v>0.97</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="7">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="S9" s="8">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="T9" s="9"/>
+      <c r="U9" s="28">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="V9" s="29">
+        <v>0.99319999999999997</v>
+      </c>
+      <c r="W9" s="9"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="9"/>
+    </row>
+    <row r="10" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="21" t="s">
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="19">
+        <v>0.33</v>
+      </c>
+      <c r="P10" s="20">
+        <v>0.89</v>
+      </c>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="7">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="S10" s="8">
+        <v>0.8861</v>
+      </c>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="V10" s="8">
+        <v>0.88049999999999995</v>
+      </c>
+      <c r="W10" s="9"/>
+      <c r="X10" s="28">
+        <v>0.21940000000000001</v>
+      </c>
+      <c r="Y10" s="29">
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="9"/>
+    </row>
+    <row r="11" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="21" t="s">
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P11" s="23">
+        <v>0.93</v>
+      </c>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="2">
+        <v>0.1401</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="45"/>
+      <c r="J12" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="23"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="22">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="P12" s="23">
+        <v>0.97</v>
+      </c>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="2">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="3"/>
     </row>
-    <row r="7" spans="3:32" ht="17.25" thickBot="1">
-      <c r="C7" s="34">
-        <v>1</v>
-      </c>
-      <c r="D7" s="35">
-        <v>2</v>
-      </c>
-      <c r="E7" s="35">
-        <v>3</v>
-      </c>
-      <c r="F7" s="35">
-        <v>4</v>
-      </c>
-      <c r="G7" s="36">
-        <v>5</v>
-      </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="R7" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="S7" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="T7" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="U7" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="V7" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="W7" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="X7" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y7" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z7" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA7" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB7" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC7" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD7" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE7" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF7" s="36" t="s">
-        <v>5</v>
-      </c>
+    <row r="13" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="22">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="P13" s="23">
+        <v>0.98</v>
+      </c>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="3"/>
     </row>
-    <row r="8" spans="3:32">
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="27"/>
+    <row r="14" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="22">
+        <v>0.51</v>
+      </c>
+      <c r="P14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="2">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0.96479999999999999</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="3"/>
     </row>
-    <row r="9" spans="3:32">
-      <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="5"/>
+    <row r="15" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="3"/>
     </row>
-    <row r="10" spans="3:32">
-      <c r="C10" s="4"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="5"/>
+    <row r="16" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="3"/>
     </row>
-    <row r="11" spans="3:32">
-      <c r="C11" s="4"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="5"/>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="45"/>
+      <c r="J17" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="15"/>
     </row>
-    <row r="12" spans="3:32" ht="17.25" thickBot="1">
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="8"/>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="15"/>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="15"/>
+    </row>
+    <row r="20" spans="3:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:N12"/>
+  <mergeCells count="26">
+    <mergeCell ref="J20:N20"/>
     <mergeCell ref="U6:W6"/>
     <mergeCell ref="X6:Z6"/>
     <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="H17:I20"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="J19:N19"/>
     <mergeCell ref="AD6:AF6"/>
-    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="H9:I11"/>
     <mergeCell ref="J9:N9"/>
-    <mergeCell ref="H10:I10"/>
     <mergeCell ref="J10:N10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="H12:I15"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="J14:N14"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:N8"/>
     <mergeCell ref="H6:N7"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="R6:T6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/Tensorflow_Certificate/모델 분류.xlsx
+++ b/Personal/Tensorflow_Certificate/모델 분류.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sangtaek_Lee\Desktop\TIL\Personal\Tensorflow_Certificate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32437304-2F41-45DA-9DE1-91565AE4D551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B503FCF1-891D-4070-ADFC-D779977CB504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14910" yWindow="2130" windowWidth="11805" windowHeight="11385" xr2:uid="{47C03463-BEFF-4097-AAB7-86A08A368AE8}"/>
+    <workbookView xWindow="6090" yWindow="-13410" windowWidth="11805" windowHeight="11385" xr2:uid="{47C03463-BEFF-4097-AAB7-86A08A368AE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -613,6 +613,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -622,6 +628,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -647,45 +686,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1006,59 +1006,59 @@
   <dimension ref="C5:AF20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="5" spans="3:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="30" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="39" t="s">
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="30" t="s">
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="31"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="30" t="s">
+      <c r="S6" s="33"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="V6" s="31"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="30" t="s">
+      <c r="V6" s="33"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="30" t="s">
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="30" t="s">
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="32"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="34"/>
     </row>
     <row r="7" spans="3:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="10">
@@ -1076,13 +1076,13 @@
       <c r="G7" s="12">
         <v>5</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="38"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="51"/>
       <c r="O7" s="16" t="s">
         <v>3</v>
       </c>
@@ -1144,17 +1144,17 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34" t="s">
+      <c r="I8" s="47"/>
+      <c r="J8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="35"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="48"/>
       <c r="O8" s="19" t="s">
         <v>24</v>
       </c>
@@ -1186,17 +1186,17 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="45"/>
-      <c r="J9" s="42" t="s">
+      <c r="I9" s="39"/>
+      <c r="J9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="43"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="37"/>
       <c r="O9" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1236,15 +1236,15 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="42" t="s">
+      <c r="H10" s="40"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="43"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="37"/>
       <c r="O10" s="19">
         <v>0.33</v>
       </c>
@@ -1286,15 +1286,15 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="42" t="s">
+      <c r="H11" s="44"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="43"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="37"/>
       <c r="O11" s="22">
         <v>0.14000000000000001</v>
       </c>
@@ -1328,17 +1328,17 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="45"/>
-      <c r="J12" s="42" t="s">
+      <c r="I12" s="39"/>
+      <c r="J12" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="43"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="37"/>
       <c r="O12" s="22">
         <v>8.7099999999999997E-2</v>
       </c>
@@ -1372,15 +1372,15 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="42" t="s">
+      <c r="H13" s="40"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="43"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="37"/>
       <c r="O13" s="22">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -1410,15 +1410,15 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="42" t="s">
+      <c r="H14" s="40"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="43"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="37"/>
       <c r="O14" s="22">
         <v>0.51</v>
       </c>
@@ -1427,10 +1427,10 @@
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="2">
-        <v>9.1800000000000007E-2</v>
+        <v>8.9200000000000002E-2</v>
       </c>
       <c r="S14" s="1">
-        <v>0.96479999999999999</v>
+        <v>0.94920000000000004</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="2"/>
@@ -1452,15 +1452,15 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="42" t="s">
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="43"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="37"/>
       <c r="O15" s="22"/>
       <c r="P15" s="23"/>
       <c r="Q15" s="24"/>
@@ -1486,17 +1486,17 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="52" t="s">
+      <c r="H16" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42" t="s">
+      <c r="I16" s="36"/>
+      <c r="J16" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="43"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="37"/>
       <c r="O16" s="22"/>
       <c r="P16" s="23"/>
       <c r="Q16" s="24"/>
@@ -1522,17 +1522,17 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="45"/>
-      <c r="J17" s="42" t="s">
+      <c r="I17" s="39"/>
+      <c r="J17" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="43"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="37"/>
       <c r="O17" s="25"/>
       <c r="P17" s="26"/>
       <c r="Q17" s="27"/>
@@ -1558,15 +1558,15 @@
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="42" t="s">
+      <c r="H18" s="40"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="43"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="37"/>
       <c r="O18" s="25"/>
       <c r="P18" s="26"/>
       <c r="Q18" s="27"/>
@@ -1592,15 +1592,15 @@
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="42" t="s">
+      <c r="H19" s="40"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="43"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="37"/>
       <c r="O19" s="25"/>
       <c r="P19" s="26"/>
       <c r="Q19" s="27"/>
@@ -1626,15 +1626,15 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="50" t="s">
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="51"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="31"/>
       <c r="O20" s="16"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="18"/>
@@ -1656,16 +1656,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="H17:I20"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="H6:N7"/>
+    <mergeCell ref="O6:Q6"/>
     <mergeCell ref="AD6:AF6"/>
     <mergeCell ref="J11:N11"/>
     <mergeCell ref="J15:N15"/>
@@ -1677,11 +1672,16 @@
     <mergeCell ref="J12:N12"/>
     <mergeCell ref="J13:N13"/>
     <mergeCell ref="J14:N14"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="H6:N7"/>
-    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="H17:I20"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="J19:N19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/Tensorflow_Certificate/모델 분류.xlsx
+++ b/Personal/Tensorflow_Certificate/모델 분류.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sangtaek_Lee\Desktop\TIL\Personal\Tensorflow_Certificate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B503FCF1-891D-4070-ADFC-D779977CB504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498B62F9-1B06-47F0-B1F8-7CAB9C6FDA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="-13410" windowWidth="11805" windowHeight="11385" xr2:uid="{47C03463-BEFF-4097-AAB7-86A08A368AE8}"/>
+    <workbookView xWindow="-14550" yWindow="1800" windowWidth="11805" windowHeight="11385" xr2:uid="{47C03463-BEFF-4097-AAB7-86A08A368AE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>시험 Test</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t>관계없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상관없음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -189,7 +193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +211,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -522,7 +532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -613,6 +623,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -667,9 +686,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -686,6 +702,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1005,60 +1033,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E9AAD6-F362-4826-8F76-82BA7749E6D3}">
   <dimension ref="C5:AF20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="5" spans="3:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="32" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="52" t="s">
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="32" t="s">
+      <c r="P6" s="55"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="33"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="32" t="s">
+      <c r="S6" s="36"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="V6" s="33"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="32" t="s">
+      <c r="V6" s="36"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="32" t="s">
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="32" t="s">
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="34"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="37"/>
     </row>
     <row r="7" spans="3:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="10">
@@ -1076,13 +1104,13 @@
       <c r="G7" s="12">
         <v>5</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="53"/>
       <c r="O7" s="16" t="s">
         <v>3</v>
       </c>
@@ -1139,22 +1167,32 @@
       </c>
     </row>
     <row r="8" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="46" t="s">
+      <c r="C8" s="7">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="9">
+        <v>5</v>
+      </c>
+      <c r="H8" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47" t="s">
+      <c r="I8" s="50"/>
+      <c r="J8" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="48"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="60"/>
       <c r="O8" s="19" t="s">
         <v>24</v>
       </c>
@@ -1181,22 +1219,32 @@
       <c r="AF8" s="9"/>
     </row>
     <row r="9" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="38" t="s">
+      <c r="C9" s="7">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8">
+        <v>5</v>
+      </c>
+      <c r="E9" s="8">
+        <v>5</v>
+      </c>
+      <c r="F9" s="8">
+        <v>5</v>
+      </c>
+      <c r="G9" s="9">
+        <v>5</v>
+      </c>
+      <c r="H9" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="36" t="s">
+      <c r="I9" s="42"/>
+      <c r="J9" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="37"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="58"/>
       <c r="O9" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1236,15 +1284,15 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="36" t="s">
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="37"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="40"/>
       <c r="O10" s="19">
         <v>0.33</v>
       </c>
@@ -1286,15 +1334,15 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="36" t="s">
+      <c r="H11" s="47"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="37"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="40"/>
       <c r="O11" s="22">
         <v>0.14000000000000001</v>
       </c>
@@ -1323,22 +1371,32 @@
       <c r="AF11" s="3"/>
     </row>
     <row r="12" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="38" t="s">
+      <c r="C12" s="30">
+        <v>5</v>
+      </c>
+      <c r="D12" s="31">
+        <v>5</v>
+      </c>
+      <c r="E12" s="31">
+        <v>5</v>
+      </c>
+      <c r="F12" s="31">
+        <v>5</v>
+      </c>
+      <c r="G12" s="32">
+        <v>5</v>
+      </c>
+      <c r="H12" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="36" t="s">
+      <c r="I12" s="42"/>
+      <c r="J12" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="37"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="58"/>
       <c r="O12" s="22">
         <v>8.7099999999999997E-2</v>
       </c>
@@ -1372,15 +1430,15 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="36" t="s">
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="37"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="40"/>
       <c r="O13" s="22">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -1410,15 +1468,15 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="36" t="s">
+      <c r="H14" s="43"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="37"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="40"/>
       <c r="O14" s="22">
         <v>0.51</v>
       </c>
@@ -1452,20 +1510,28 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="36" t="s">
+      <c r="H15" s="47"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="23"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="22">
+        <v>0.31580000000000003</v>
+      </c>
+      <c r="P15" s="23">
+        <v>0.86650000000000005</v>
+      </c>
       <c r="Q15" s="24"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="1"/>
+      <c r="R15" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0.87770000000000004</v>
+      </c>
       <c r="T15" s="3"/>
       <c r="U15" s="2"/>
       <c r="V15" s="1"/>
@@ -1481,33 +1547,59 @@
       <c r="AF15" s="3"/>
     </row>
     <row r="16" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C16" s="2"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="35" t="s">
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
+      <c r="G16" s="3">
+        <v>5</v>
+      </c>
+      <c r="H16" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36" t="s">
+      <c r="I16" s="39"/>
+      <c r="J16" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="23"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="22">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="P16" s="23">
+        <v>0.83</v>
+      </c>
       <c r="Q16" s="24"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="1"/>
+      <c r="R16" s="2">
+        <v>0.37440000000000001</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0.83320000000000005</v>
+      </c>
       <c r="T16" s="3"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="1"/>
+      <c r="U16" s="2">
+        <v>0.36969999999999997</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0.83140000000000003</v>
+      </c>
       <c r="W16" s="3"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="1"/>
+      <c r="X16" s="2">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0.83069999999999999</v>
+      </c>
       <c r="Z16" s="3"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="1"/>
@@ -1522,23 +1614,31 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="38" t="s">
+      <c r="H17" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="36" t="s">
+      <c r="I17" s="42"/>
+      <c r="J17" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="25"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="25" t="s">
+        <v>31</v>
+      </c>
       <c r="P17" s="26"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="13"/>
+      <c r="Q17" s="27">
+        <v>13.5</v>
+      </c>
+      <c r="R17" s="13">
+        <v>13.547000000000001</v>
+      </c>
       <c r="S17" s="14"/>
-      <c r="T17" s="15"/>
+      <c r="T17" s="15">
+        <v>14.035500000000001</v>
+      </c>
       <c r="U17" s="13"/>
       <c r="V17" s="14"/>
       <c r="W17" s="15"/>
@@ -1558,21 +1658,29 @@
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="36" t="s">
+      <c r="H18" s="43"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="25"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="25" t="s">
+        <v>31</v>
+      </c>
       <c r="P18" s="26"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="13"/>
+      <c r="Q18" s="27">
+        <v>0.11210000000000001</v>
+      </c>
+      <c r="R18" s="13">
+        <v>9.7000000000000003E-3</v>
+      </c>
       <c r="S18" s="14"/>
-      <c r="T18" s="15"/>
+      <c r="T18" s="15">
+        <v>0.1113</v>
+      </c>
       <c r="U18" s="13"/>
       <c r="V18" s="14"/>
       <c r="W18" s="15"/>
@@ -1587,29 +1695,51 @@
       <c r="AF18" s="15"/>
     </row>
     <row r="19" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="36" t="s">
+      <c r="C19" s="13">
+        <v>5</v>
+      </c>
+      <c r="D19" s="14">
+        <v>5</v>
+      </c>
+      <c r="E19" s="14">
+        <v>5</v>
+      </c>
+      <c r="F19" s="14">
+        <v>5</v>
+      </c>
+      <c r="G19" s="15">
+        <v>5</v>
+      </c>
+      <c r="H19" s="43"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="25"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="25">
+        <v>5.2999999999999999E-2</v>
+      </c>
       <c r="P19" s="26"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="13"/>
+      <c r="Q19" s="27">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="R19" s="13">
+        <v>3.7499999999999999E-2</v>
+      </c>
       <c r="S19" s="14"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="13"/>
+      <c r="T19" s="15">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="U19" s="13">
+        <v>4.5199999999999997E-2</v>
+      </c>
       <c r="V19" s="14"/>
-      <c r="W19" s="15"/>
+      <c r="W19" s="15">
+        <v>4.5199999999999997E-2</v>
+      </c>
       <c r="X19" s="13"/>
       <c r="Y19" s="14"/>
       <c r="Z19" s="15"/>
@@ -1626,24 +1756,30 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="30" t="s">
+      <c r="H20" s="45"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="31"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="34"/>
       <c r="O20" s="16"/>
       <c r="P20" s="17"/>
-      <c r="Q20" s="18"/>
+      <c r="Q20" s="18">
+        <v>2.5999999999999999E-2</v>
+      </c>
       <c r="R20" s="4"/>
       <c r="S20" s="5"/>
-      <c r="T20" s="6"/>
+      <c r="T20" s="6">
+        <v>2.7799999999999998E-2</v>
+      </c>
       <c r="U20" s="4"/>
       <c r="V20" s="5"/>
-      <c r="W20" s="6"/>
+      <c r="W20" s="6">
+        <v>2.6499999999999999E-2</v>
+      </c>
       <c r="X20" s="4"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="6"/>
